--- a/public/folderResource/Format_Jadwal_Seminar_Prasidang.xlsx
+++ b/public/folderResource/Format_Jadwal_Seminar_Prasidang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp-7\htdocs\thesis-2022\public\folderResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C07570-9C33-4B43-867F-CE52620A18E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687FC91D-4276-4C51-955A-E9DB45114D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NPM</t>
   </si>
@@ -36,10 +36,7 @@
     <t>Ruangan</t>
   </si>
   <si>
-    <t>Inisial Dosen Penguji 1</t>
-  </si>
-  <si>
-    <t>Inisial Dosen Penguji 2</t>
+    <t>Inisial Dosen Reviewer</t>
   </si>
 </sst>
 </file>
@@ -361,7 +358,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -373,7 +370,7 @@
     <col min="5" max="5" width="20.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,9 +383,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
